--- a/R_C14_rates calculation/summary_nutrients.xlsx
+++ b/R_C14_rates calculation/summary_nutrients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC60E12-523A-FB4F-A7D4-AF2962F155F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D257D-F631-5643-9F07-5F87614B4882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="20760" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="20760" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ST1</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Si:NO3</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Number of incubations</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -546,141 +552,147 @@
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="M5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>34</v>
       </c>
     </row>
